--- a/lab4/diagrams/Livro1.xlsx
+++ b/lab4/diagrams/Livro1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gui-2\OneDrive\Anexos\Documentos\GitHub\iapro\lab4\diagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gui-2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79666DA6-010D-4BAA-B700-967FB3CCBEF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D41DEAE-8DBB-4095-9BD5-98E984FAA118}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15390" yWindow="105" windowWidth="13365" windowHeight="15645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>empates</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>n simulaçoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vitorias </t>
   </si>
 </sst>
 </file>
@@ -84,8 +90,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +517,1075 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t>º simulações/vitorias para um dos lados</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.8507523516082233E-2"/>
+          <c:y val="0.14452572629566179"/>
+          <c:w val="0.88983616178412483"/>
+          <c:h val="0.75712442065260799"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$A$32:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$B$32:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C741-4B00-90A2-269C590A9380}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="50348095"/>
+        <c:axId val="50347679"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50348095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50347679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50347679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50348095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$A$53:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$B$53:$B$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9499-477A-8E0E-726186A77F41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="49731599"/>
+        <c:axId val="49733679"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="49731599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49733679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="49733679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49731599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1061,20 +2141,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1495425</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1094,6 +3206,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B2E355-DD3F-4DD9-BF5B-BB13FA094F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06B642F4-6AC2-4E25-9430-710979F06B00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1365,10 +3549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G28"/>
+  <dimension ref="A2:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="D53" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,7 +3842,707 @@
         <v>5</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>150</v>
+      </c>
+      <c r="B35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>200</v>
+      </c>
+      <c r="B36">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>250</v>
+      </c>
+      <c r="B37">
+        <v>98</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>300</v>
+      </c>
+      <c r="B38">
+        <v>73</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>350</v>
+      </c>
+      <c r="B39">
+        <v>45</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>400</v>
+      </c>
+      <c r="B40">
+        <v>32</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>450</v>
+      </c>
+      <c r="B41">
+        <v>35</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>500</v>
+      </c>
+      <c r="B42">
+        <v>14</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>550</v>
+      </c>
+      <c r="B43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>600</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>650</v>
+      </c>
+      <c r="B45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>700</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>750</v>
+      </c>
+      <c r="B47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>800</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>850</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>900</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>950</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1000</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1050</v>
+      </c>
+      <c r="B53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1100</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1150</v>
+      </c>
+      <c r="B55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1200</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1250</v>
+      </c>
+      <c r="B57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1300</v>
+      </c>
+      <c r="B58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1400</v>
+      </c>
+      <c r="B59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1500</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1600</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1700</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1800</v>
+      </c>
+      <c r="B63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1900</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>1000</v>
+      </c>
+      <c r="E64">
+        <v>11</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2000</v>
+      </c>
+      <c r="B65">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>2000</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+      <c r="G65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2100</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="D66">
+        <v>3000</v>
+      </c>
+      <c r="E66">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>12</v>
+      </c>
+      <c r="G66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2200</v>
+      </c>
+      <c r="B67">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>4000</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2300</v>
+      </c>
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>5000</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2400</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>6000</v>
+      </c>
+      <c r="E69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2500</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>7000</v>
+      </c>
+      <c r="E70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2600</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>8000</v>
+      </c>
+      <c r="E71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2700</v>
+      </c>
+      <c r="B72">
+        <v>9</v>
+      </c>
+      <c r="D72">
+        <v>9000</v>
+      </c>
+      <c r="E72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2800</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="D73">
+        <v>10000</v>
+      </c>
+      <c r="E73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2900</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>11000</v>
+      </c>
+      <c r="E74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>3000</v>
+      </c>
+      <c r="B75">
+        <v>13</v>
+      </c>
+      <c r="D75">
+        <v>12000</v>
+      </c>
+      <c r="E75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3100</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>13000</v>
+      </c>
+      <c r="E76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3200</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>14000</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3300</v>
+      </c>
+      <c r="B78">
+        <v>14</v>
+      </c>
+      <c r="D78">
+        <v>15000</v>
+      </c>
+      <c r="E78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3400</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>16000</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3500</v>
+      </c>
+      <c r="B80">
+        <v>17</v>
+      </c>
+      <c r="D80">
+        <v>17000</v>
+      </c>
+      <c r="E80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3600</v>
+      </c>
+      <c r="B81">
+        <v>14</v>
+      </c>
+      <c r="D81">
+        <v>18000</v>
+      </c>
+      <c r="E81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3700</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="D82">
+        <v>19000</v>
+      </c>
+      <c r="E82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3800</v>
+      </c>
+      <c r="B83">
+        <v>13</v>
+      </c>
+      <c r="D83">
+        <v>20000</v>
+      </c>
+      <c r="E83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3900</v>
+      </c>
+      <c r="B84">
+        <v>8</v>
+      </c>
+      <c r="D84">
+        <v>21000</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>4000</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
+      <c r="D85">
+        <v>22000</v>
+      </c>
+      <c r="E85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4100</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>23000</v>
+      </c>
+      <c r="E86">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>4200</v>
+      </c>
+      <c r="B87">
+        <v>11</v>
+      </c>
+      <c r="D87">
+        <v>24000</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4300</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>25000</v>
+      </c>
+      <c r="E88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>4400</v>
+      </c>
+      <c r="B89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>4500</v>
+      </c>
+      <c r="B90">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>4600</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4700</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4800</v>
+      </c>
+      <c r="B93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>4900</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>5000</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E37:E39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/lab4/diagrams/Livro1.xlsx
+++ b/lab4/diagrams/Livro1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gui-2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gui-2\OneDrive\Anexos\Documentos\GitHub\iapro\lab4\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D41DEAE-8DBB-4095-9BD5-98E984FAA118}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5667292A-1E6B-4251-8CE2-8B30853005AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15390" yWindow="105" windowWidth="13365" windowHeight="15645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -222,6 +222,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Folha1!$A$14:$A$28</c:f>
@@ -634,6 +648,34 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Folha1!$A$32:$A$52</c:f>
@@ -1505,6 +1547,477 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31045122484689414"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$D$64:$D$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$E$64:$E$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32B6-44BD-9A8D-E4680A19A49B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1509678944"/>
+        <c:axId val="1509679360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1509678944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1509679360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1509679360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1509678944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1625,6 +2138,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2658,6 +3211,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3249,16 +4318,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1219200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3278,6 +4347,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD290B4-D1E9-4FCC-9ACA-C1C4B4116699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3551,8 +4656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D53" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4270,7 +5375,7 @@
         <v>10000</v>
       </c>
       <c r="E73">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
